--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE66C8-7622-47E7-9DA1-B30AF8388954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0938927-7AB8-4D1F-8311-47F9BFE53B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
@@ -26,18 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Percent</t>
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Game creator</t>
-  </si>
-  <si>
-    <t>Match winner</t>
   </si>
   <si>
     <t>Platform</t>
@@ -53,6 +47,9 @@
   </si>
   <si>
     <t>SNS Sale</t>
+  </si>
+  <si>
+    <t>Game creator + Match winner</t>
   </si>
 </sst>
 </file>
@@ -88,9 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,11 +127,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -161,11 +159,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -200,104 +198,147 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-39E7-43D6-B589-A4B81BDBE39C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-39E7-43D6-B589-A4B81BDBE39C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-39E7-43D6-B589-A4B81BDBE39C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -306,9 +347,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -318,10 +362,10 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -330,9 +374,9 @@
               <c:spPr>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
                 </a:ln>
@@ -345,19 +389,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>distribution!$B$2:$B$5</c:f>
+              <c:f>distribution!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Game creator</c:v>
+                  <c:v>Game creator + Match winner</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Match winner</c:v>
+                  <c:v>Platform</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Platform</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Burned</c:v>
                 </c:pt>
               </c:strCache>
@@ -365,20 +406,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>distribution!$C$2:$C$5</c:f>
+              <c:f>distribution!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -391,7 +429,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -411,15 +449,10 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -432,9 +465,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -458,30 +491,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -527,11 +544,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -559,11 +576,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -598,19 +615,41 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -622,19 +661,41 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -646,19 +707,41 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -668,30 +751,11 @@
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -700,9 +764,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -712,10 +779,10 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -724,9 +791,9 @@
               <c:spPr>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
                 </a:ln>
@@ -779,7 +846,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -799,15 +866,10 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -820,9 +882,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -846,30 +908,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -895,13 +941,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -935,13 +978,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -975,235 +1015,186 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -1222,17 +1213,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1249,15 +1240,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1273,7 +1264,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1292,12 +1283,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1318,24 +1308,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1349,24 +1327,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1380,30 +1346,30 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1412,22 +1378,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1435,7 +1393,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1448,17 +1406,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1476,12 +1434,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1490,24 +1448,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1519,9 +1477,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1539,9 +1497,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1552,16 +1510,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1576,235 +1529,186 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -1823,17 +1727,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1850,15 +1754,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1874,7 +1778,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1893,12 +1797,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1919,24 +1822,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1950,24 +1841,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1981,30 +1860,30 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2013,22 +1892,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2036,7 +1907,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2049,17 +1920,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2077,12 +1948,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2091,24 +1962,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2120,9 +1991,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2140,9 +2011,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2153,16 +2024,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2557,10 +2423,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BBDA4-9382-4D25-A685-5B443116FA30}">
+  <dimension ref="B1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3A5C7-3DB5-483B-964E-CAC4D32303BF}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,63 +2493,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3A5C7-3DB5-483B-964E-CAC4D32303BF}">
-  <dimension ref="B1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>0.55000000000000004</v>
@@ -2639,7 +2501,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>0.2</v>
@@ -2647,7 +2509,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>0.25</v>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0938927-7AB8-4D1F-8311-47F9BFE53B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD6720-ECC6-402D-862F-3333D8A307DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
@@ -43,19 +43,22 @@
     <t>Treasury</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>SNS Sale</t>
   </si>
   <si>
     <t>Game creator + Match winner</t>
+  </si>
+  <si>
+    <t>Founding Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +91,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,6 +753,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -813,7 +817,7 @@
                   <c:v>Treasury</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Team</c:v>
+                  <c:v>Founding Team</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>SNS Sale</c:v>
@@ -825,16 +829,16 @@
             <c:numRef>
               <c:f>allocation!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,15 +2427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BBDA4-9382-4D25-A685-5B443116FA30}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -2439,15 +2443,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2455,16 +2459,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2477,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3A5C7-3DB5-483B-964E-CAC4D32303BF}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,24 +2496,24 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.55000000000000004</v>
+      <c r="C2" s="2">
+        <v>0.63</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.2</v>
+      <c r="C3" s="2">
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.25</v>
+      <c r="C4" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD6720-ECC6-402D-862F-3333D8A307DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C366E-76ED-48B7-BF56-61972360CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
@@ -832,13 +832,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.63</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,7 +2479,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C366E-76ED-48B7-BF56-61972360CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E5C0D-D7C7-4525-B585-698628775048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="2" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
     <sheet name="allocation" sheetId="2" r:id="rId2"/>
+    <sheet name="raised" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Percent</t>
   </si>
@@ -51,14 +52,26 @@
   <si>
     <t>Founding Team</t>
   </si>
+  <si>
+    <t>Raised directly (ICP)</t>
+  </si>
+  <si>
+    <t>Raised NF (ICP)</t>
+  </si>
+  <si>
+    <t>Token price (ICP)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,11 +143,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -162,11 +175,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -205,37 +218,38 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -251,37 +265,38 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -297,37 +312,38 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -353,8 +369,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -375,13 +391,14 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -469,8 +486,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -547,11 +564,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -579,11 +596,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -622,37 +639,38 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -668,37 +686,38 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -714,37 +733,38 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -753,7 +773,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -771,8 +791,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -793,13 +813,14 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -829,7 +850,7 @@
             <c:numRef>
               <c:f>allocation!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.35</c:v>
@@ -887,8 +908,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -909,6 +930,718 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raised directly (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6214-4BFF-9F3F-F43F34F47D74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raised NF (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6214-4BFF-9F3F-F43F34F47D74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1927471871"/>
+        <c:axId val="1927468991"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Token price (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.1399999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.042E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6214-4BFF-9F3F-F43F34F47D74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2025955023"/>
+        <c:axId val="2025950223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1927471871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927468991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927468991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927471871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2025950223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000003E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025955023"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2025955023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2025950223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1018,19 +1751,56 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1038,12 +1808,12 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1060,7 +1830,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1084,8 +1854,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1119,51 +1889,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1175,33 +1930,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1218,18 +1971,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1244,15 +1999,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1263,17 +2018,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1282,16 +2037,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1300,7 +2056,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1308,7 +2064,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1327,16 +2083,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1345,17 +2102,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1364,16 +2121,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1383,26 +2141,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1411,12 +2169,12 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1433,17 +2191,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1453,23 +2211,23 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1482,8 +2240,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1502,8 +2260,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1515,8 +2273,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1526,25 +2284,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1552,12 +2310,12 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1574,7 +2332,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1598,8 +2356,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1633,51 +2391,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1689,33 +2432,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1732,18 +2473,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1758,15 +2501,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1777,17 +2520,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1796,16 +2539,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1814,7 +2558,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1822,7 +2566,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1841,16 +2585,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1859,17 +2604,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1878,16 +2623,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1897,26 +2643,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1925,12 +2671,12 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1947,17 +2693,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1967,23 +2713,23 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1996,8 +2742,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2016,8 +2762,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2029,8 +2775,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2040,7 +2786,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2114,6 +3362,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7E1210-E69B-B659-0603-E9A2553376BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2430,7 +3719,7 @@
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3A5C7-3DB5-483B-964E-CAC4D32303BF}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +3785,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.35</v>
       </c>
     </row>
@@ -2504,7 +3793,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -2512,7 +3801,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.35</v>
       </c>
     </row>
@@ -2523,4 +3812,59 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2D3D3-626E-4EC9-9705-B9069650A63E}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D2">
+        <v>6.1399999999999996E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D3">
+        <v>1.042E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E5C0D-D7C7-4525-B585-698628775048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D9AB7-3864-4F25-ABED-7AAAF9789BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="2" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Percent</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Valuation (ICP)</t>
   </si>
 </sst>
 </file>
@@ -1677,6 +1680,879 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4961887641028619E-2"/>
+          <c:y val="1.81495923984808E-2"/>
+          <c:w val="0.82812745334428028"/>
+          <c:h val="0.8114055572019836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raised directly (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E72-4630-8F8C-6349AAB3BC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raised NF (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E72-4630-8F8C-6349AAB3BC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1927471871"/>
+        <c:axId val="1927468991"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valuation (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>614285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E72-4630-8F8C-6349AAB3BC19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2025955023"/>
+        <c:axId val="2025950223"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Token price (ICP)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$A$2:$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Min</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Max</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$D$2:$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>6.1399999999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.042E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8E72-4630-8F8C-6349AAB3BC19}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1927471871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927468991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927468991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927471871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2025950223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025955023"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2025955023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2025950223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -1788,6 +2664,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
@@ -2793,6 +3706,508 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3382,16 +4797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3411,6 +4826,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392112</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBE3996-3387-4F94-8A79-F505BE4661A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3816,15 +5269,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2D3D3-626E-4EC9-9705-B9069650A63E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -3834,8 +5287,11 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3848,8 +5304,11 @@
       <c r="D2">
         <v>6.1399999999999996E-3</v>
       </c>
+      <c r="E2" s="2">
+        <v>614285</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3862,6 +5321,9 @@
       <c r="D3">
         <v>1.042E-2</v>
       </c>
+      <c r="E3" s="2">
+        <v>1042857</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D9AB7-3864-4F25-ABED-7AAAF9789BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300410ED-119E-4BB5-ABF5-4D7562FC64A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="2" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
-    <sheet name="allocation" sheetId="2" r:id="rId2"/>
-    <sheet name="raised" sheetId="3" r:id="rId3"/>
+    <sheet name="raised" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Percent</t>
   </si>
@@ -41,16 +40,7 @@
     <t>Burned</t>
   </si>
   <si>
-    <t>Treasury</t>
-  </si>
-  <si>
-    <t>SNS Sale</t>
-  </si>
-  <si>
     <t>Game creator + Match winner</t>
-  </si>
-  <si>
-    <t>Founding Team</t>
   </si>
   <si>
     <t>Raised directly (ICP)</t>
@@ -217,32 +207,12 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -264,32 +234,12 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -311,32 +261,12 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -434,10 +364,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.05</c:v>
@@ -547,428 +477,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Token allocation at genesis</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>allocation!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D29D-475A-8859-F378B43D0D31}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D29D-475A-8859-F378B43D0D31}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D29D-475A-8859-F378B43D0D31}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>allocation!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Treasury</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Founding Team</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SNS Sale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>allocation!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D29D-475A-8859-F378B43D0D31}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1406,10 +914,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.1399999999999996E-3</c:v>
+                  <c:v>1.0238095238095239E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.042E-2</c:v>
+                  <c:v>1.7380952380952382E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1054,7 @@
         <c:axId val="2025950223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000003E-2"/>
+          <c:max val="1.8000000000000002E-2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1680,7 +1188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2127,10 +1635,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>614285</c:v>
+                  <c:v>1023809.5238095238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1042857</c:v>
+                  <c:v>1738095.2380952381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,10 +1794,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>6.1399999999999996E-3</c:v>
+                        <c:v>1.0238095238095239E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.042E-2</c:v>
+                        <c:v>1.7380952380952382E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2417,7 +1925,7 @@
         <c:axId val="2025950223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1100000"/>
+          <c:max val="1900000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2664,43 +2172,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
@@ -3204,7 +2675,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3706,508 +3177,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4751,49 +3720,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5738C295-E2C5-4B14-9FA0-EC6047E0DA4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5172,7 +4098,7 @@
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,10 +4113,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -5198,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -5217,83 +4143,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3A5C7-3DB5-483B-964E-CAC4D32303BF}">
-  <dimension ref="B1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2D3D3-626E-4EC9-9705-B9069650A63E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>150000</v>
@@ -5302,15 +4180,15 @@
         <v>65000</v>
       </c>
       <c r="D2">
-        <v>6.1399999999999996E-3</v>
+        <v>1.0238095238095239E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>614285</v>
+        <v>1023809.5238095238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>300000</v>
@@ -5319,10 +4197,10 @@
         <v>65000</v>
       </c>
       <c r="D3">
-        <v>1.042E-2</v>
+        <v>1.7380952380952382E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>1042857</v>
+        <v>1738095.2380952381</v>
       </c>
     </row>
   </sheetData>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300410ED-119E-4BB5-ABF5-4D7562FC64A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C9F43-588B-487B-BAC1-3044C9627C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Percent</t>
   </si>
@@ -58,14 +58,40 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Valuation (ICP)</t>
+    <t>M Cap total (ICP)</t>
+  </si>
+  <si>
+    <t>M Cap circ (ICP)</t>
+  </si>
+  <si>
+    <t>Total Supply</t>
+  </si>
+  <si>
+    <t>Circ Supply</t>
+  </si>
+  <si>
+    <t>M Cap tt (ICP)</t>
+  </si>
+  <si>
+    <t>M cap cs (ICP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +117,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1534,7 +1563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valuation (ICP)</c:v>
+                  <c:v>M Cap total (ICP)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2061,6 +2090,1024 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4961887641028619E-2"/>
+          <c:y val="1.81495923984808E-2"/>
+          <c:w val="0.82812745334428028"/>
+          <c:h val="0.8114055572019836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raised directly (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1839-4188-8763-39044B489C29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raised NF (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1839-4188-8763-39044B489C29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1927471871"/>
+        <c:axId val="1927468991"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raised!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M Cap circ (ICP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>raised!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raised!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>399285.71428571432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>677857.14285714284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1839-4188-8763-39044B489C29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2025955023"/>
+        <c:axId val="2025950223"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Token price (ICP)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$A$2:$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Min</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Max</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$D$2:$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>1.0238095238095239E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.7380952380952382E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1839-4188-8763-39044B489C29}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>M Cap total (ICP)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$A$2:$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Min</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Max</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>raised!$E$2:$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>1023809.5238095238</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1738095.2380952381</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1839-4188-8763-39044B489C29}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1927471871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927468991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927468991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927471871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2025950223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025955023"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2025955023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2025950223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2172,6 +3219,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
@@ -3177,6 +4261,508 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3790,6 +5376,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>411162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFE0C5F-83E4-4866-A60E-AEE750FC6AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4144,18 +5768,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2D3D3-626E-4EC9-9705-B9069650A63E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -4168,8 +5795,23 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4185,8 +5827,27 @@
       <c r="E2" s="2">
         <v>1023809.5238095238</v>
       </c>
+      <c r="F2" s="2">
+        <f>E2*(1-(0.61))</f>
+        <v>399285.71428571432</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2*(1-(0.61))</f>
+        <v>39000000</v>
+      </c>
+      <c r="I2" s="3">
+        <f>G2*$D2</f>
+        <v>1023809.5238095239</v>
+      </c>
+      <c r="J2" s="3">
+        <f>H2*$D2</f>
+        <v>399285.71428571432</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4202,9 +5863,29 @@
       <c r="E3" s="2">
         <v>1738095.2380952381</v>
       </c>
+      <c r="F3" s="2">
+        <f>E3*(1-(0.61))</f>
+        <v>677857.14285714284</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3*(1-(0.61))</f>
+        <v>39000000</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3*$D3</f>
+        <v>1738095.2380952383</v>
+      </c>
+      <c r="J3" s="3">
+        <f>H3*$D3</f>
+        <v>677857.14285714296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C9F43-588B-487B-BAC1-3044C9627C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C232B7-6CDF-41C5-A7B6-3BE4E15A28D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Percent</t>
   </si>
@@ -75,14 +75,24 @@
   <si>
     <t>M cap cs (ICP)</t>
   </si>
+  <si>
+    <t>M Cap tt (USD)</t>
+  </si>
+  <si>
+    <t>ICP/USD</t>
+  </si>
+  <si>
+    <t>M cap cs (USD)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,11 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +668,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>300000</c:v>
@@ -802,10 +813,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>65000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1390,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>300000</c:v>
@@ -1524,10 +1535,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>65000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,7 +2263,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>300000</c:v>
@@ -2397,10 +2408,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>65000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65000</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2718,7 +2729,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>raised!$E$1</c15:sqref>
@@ -2788,7 +2799,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2810,7 +2821,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>raised!$A$2:$A$3</c15:sqref>
@@ -2830,7 +2841,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>raised!$E$2:$E$3</c15:sqref>
@@ -2850,7 +2861,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1839-4188-8763-39044B489C29}"/>
                   </c:ext>
@@ -5768,10 +5779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2D3D3-626E-4EC9-9705-B9069650A63E}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,10 +5790,12 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -5810,16 +5823,22 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>65000</v>
+        <v>72000</v>
       </c>
       <c r="D2">
         <v>1.0238095238095239E-2</v>
@@ -5846,8 +5865,16 @@
         <f>H2*$D2</f>
         <v>399285.71428571432</v>
       </c>
+      <c r="K2" s="4">
+        <f>I2*$B$5</f>
+        <v>12285714.285714287</v>
+      </c>
+      <c r="L2" s="4">
+        <f>J2*$B$5</f>
+        <v>4791428.5714285718</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5855,7 +5882,7 @@
         <v>300000</v>
       </c>
       <c r="C3" s="2">
-        <v>65000</v>
+        <v>72000</v>
       </c>
       <c r="D3">
         <v>1.7380952380952382E-2</v>
@@ -5882,6 +5909,22 @@
         <f>H3*$D3</f>
         <v>677857.14285714296</v>
       </c>
+      <c r="K3" s="4">
+        <f>I3*$B$5</f>
+        <v>20857142.857142858</v>
+      </c>
+      <c r="L3" s="4">
+        <f>J3*$B$5</f>
+        <v>8134285.7142857155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C232B7-6CDF-41C5-A7B6-3BE4E15A28D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7B82A-3581-4AA0-886C-D227B9345803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,12 +132,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,13 +953,13 @@
             <c:numRef>
               <c:f>raised!$D$2:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0238095238095239E-2</c:v>
+                  <c:v>8.1904761904761907E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7380952380952382E-2</c:v>
+                  <c:v>1.7714285714285717E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,7 +1101,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1831,13 +1833,13 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>#,##0.000000</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>1.0238095238095239E-2</c:v>
+                        <c:v>8.1904761904761907E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.7380952380952382E-2</c:v>
+                        <c:v>1.7714285714285717E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2704,13 +2706,13 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>#,##0.000000</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>1.0238095238095239E-2</c:v>
+                        <c:v>8.1904761904761907E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.7380952380952382E-2</c:v>
+                        <c:v>1.7714285714285717E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5782,7 +5784,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5840,8 +5842,9 @@
       <c r="C2" s="2">
         <v>72000</v>
       </c>
-      <c r="D2">
-        <v>1.0238095238095239E-2</v>
+      <c r="D2" s="5">
+        <f>(B2+C2)/21%/G2</f>
+        <v>8.1904761904761907E-3</v>
       </c>
       <c r="E2" s="2">
         <v>1023809.5238095238</v>
@@ -5859,19 +5862,19 @@
       </c>
       <c r="I2" s="3">
         <f>G2*$D2</f>
-        <v>1023809.5238095239</v>
+        <v>819047.61904761905</v>
       </c>
       <c r="J2" s="3">
         <f>H2*$D2</f>
-        <v>399285.71428571432</v>
+        <v>319428.57142857142</v>
       </c>
       <c r="K2" s="4">
         <f>I2*$B$5</f>
-        <v>12285714.285714287</v>
+        <v>9828571.4285714291</v>
       </c>
       <c r="L2" s="4">
         <f>J2*$B$5</f>
-        <v>4791428.5714285718</v>
+        <v>3833142.8571428573</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5884,8 +5887,9 @@
       <c r="C3" s="2">
         <v>72000</v>
       </c>
-      <c r="D3">
-        <v>1.7380952380952382E-2</v>
+      <c r="D3" s="5">
+        <f>(B3+C3)/21%/G3</f>
+        <v>1.7714285714285717E-2</v>
       </c>
       <c r="E3" s="2">
         <v>1738095.2380952381</v>
@@ -5903,19 +5907,19 @@
       </c>
       <c r="I3" s="3">
         <f>G3*$D3</f>
-        <v>1738095.2380952383</v>
+        <v>1771428.5714285718</v>
       </c>
       <c r="J3" s="3">
         <f>H3*$D3</f>
-        <v>677857.14285714296</v>
+        <v>690857.14285714296</v>
       </c>
       <c r="K3" s="4">
         <f>I3*$B$5</f>
-        <v>20857142.857142858</v>
+        <v>21257142.857142862</v>
       </c>
       <c r="L3" s="4">
         <f>J3*$B$5</f>
-        <v>8134285.7142857155</v>
+        <v>8290285.7142857155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7B82A-3581-4AA0-886C-D227B9345803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCB269-2396-4D0F-A8AF-C839D7769BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{B1AB81DD-C8A7-4FF8-A7E8-6DE0EE959A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Percent</t>
   </si>
@@ -84,6 +84,15 @@
   <si>
     <t>M cap cs (USD)</t>
   </si>
+  <si>
+    <t>SNS Sale</t>
+  </si>
+  <si>
+    <t>Treasury</t>
+  </si>
+  <si>
+    <t>Token price USD</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="170" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,7 +147,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,10 +824,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,10 +965,10 @@
                 <c:formatCode>#,##0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.1904761904761907E-3</c:v>
+                  <c:v>7.1428571428571418E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7714285714285717E-2</c:v>
+                  <c:v>1.4285714285714284E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,10 +1546,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,7 +1581,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>raised!$E$1</c:f>
+              <c:f>raised!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1672,15 +1681,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raised!$E$2:$E$3</c:f>
+              <c:f>raised!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1023809.5238095238</c:v>
+                  <c:v>714285.7142857142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1738095.2380952381</c:v>
+                  <c:v>1428571.4285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,10 +1845,10 @@
                       <c:formatCode>#,##0.000000</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>8.1904761904761907E-3</c:v>
+                        <c:v>7.1428571428571418E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.7714285714285717E-2</c:v>
+                        <c:v>1.4285714285714284E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2410,10 +2419,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,7 +2454,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>raised!$F$1</c:f>
+              <c:f>raised!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2545,15 +2554,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raised!$F$2:$F$3</c:f>
+              <c:f>raised!$G$2:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>399285.71428571432</c:v>
+                  <c:v>407142.85714285716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>677857.14285714284</c:v>
+                  <c:v>814285.71428571432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,10 +2718,10 @@
                       <c:formatCode>#,##0.000000</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>8.1904761904761907E-3</c:v>
+                        <c:v>7.1428571428571418E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.7714285714285717E-2</c:v>
+                        <c:v>1.4285714285714284E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2734,7 +2743,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>raised!$E$1</c15:sqref>
+                          <c15:sqref>raised!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2846,7 +2855,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>raised!$E$2:$E$3</c15:sqref>
+                          <c15:sqref>raised!$F$2:$F$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2854,10 +2863,10 @@
                       <c:formatCode>#,##0</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>1023809.5238095238</c:v>
+                        <c:v>714285.7142857142</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1738095.2380952381</c:v>
+                        <c:v>1428571.4285714284</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2985,7 +2994,7 @@
         <c:axId val="2025950223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700000"/>
+          <c:max val="900000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5322,16 +5331,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5358,13 +5367,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>392112</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -5396,13 +5405,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>411162</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -5781,23 +5790,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2D3D3-626E-4EC9-9705-B9069650A63E}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -5808,31 +5818,34 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5840,44 +5853,49 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="5">
-        <f>(B2+C2)/21%/G2</f>
-        <v>8.1904761904761907E-3</v>
+        <f>(B2+C2)/B6/H2</f>
+        <v>7.1428571428571418E-3</v>
       </c>
-      <c r="E2" s="2">
-        <v>1023809.5238095238</v>
+      <c r="E2" s="4">
+        <f>D2*B5</f>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="F2" s="2">
-        <f>E2*(1-(0.61))</f>
-        <v>399285.71428571432</v>
+        <f>J2</f>
+        <v>714285.7142857142</v>
       </c>
       <c r="G2" s="2">
+        <f>F2*(1-B7)</f>
+        <v>407142.85714285716</v>
+      </c>
+      <c r="H2" s="2">
         <v>100000000</v>
       </c>
-      <c r="H2" s="3">
-        <f>G2*(1-(0.61))</f>
-        <v>39000000</v>
-      </c>
       <c r="I2" s="3">
-        <f>G2*$D2</f>
-        <v>819047.61904761905</v>
+        <f>H2*(1-B7)</f>
+        <v>57000000.000000007</v>
       </c>
       <c r="J2" s="3">
         <f>H2*$D2</f>
-        <v>319428.57142857142</v>
+        <v>714285.7142857142</v>
       </c>
-      <c r="K2" s="4">
-        <f>I2*$B$5</f>
-        <v>9828571.4285714291</v>
+      <c r="K2" s="3">
+        <f>I2*$D2</f>
+        <v>407142.85714285716</v>
       </c>
       <c r="L2" s="4">
         <f>J2*$B$5</f>
-        <v>3833142.8571428573</v>
+        <v>4999999.9999999991</v>
+      </c>
+      <c r="M2" s="4">
+        <f>K2*$B$5</f>
+        <v>2850000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5885,49 +5903,70 @@
         <v>300000</v>
       </c>
       <c r="C3" s="2">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="5">
-        <f>(B3+C3)/21%/G3</f>
-        <v>1.7714285714285717E-2</v>
+        <f>(B3+C3)/B6/H3</f>
+        <v>1.4285714285714284E-2</v>
       </c>
-      <c r="E3" s="2">
-        <v>1738095.2380952381</v>
+      <c r="E3" s="4">
+        <f>D3*B5</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F3" s="2">
-        <f>E3*(1-(0.61))</f>
-        <v>677857.14285714284</v>
+        <f>J3</f>
+        <v>1428571.4285714284</v>
       </c>
       <c r="G3" s="2">
+        <f>F3*(1-B7)</f>
+        <v>814285.71428571432</v>
+      </c>
+      <c r="H3" s="2">
         <v>100000000</v>
       </c>
-      <c r="H3" s="3">
-        <f>G3*(1-(0.61))</f>
-        <v>39000000</v>
-      </c>
       <c r="I3" s="3">
-        <f>G3*$D3</f>
-        <v>1771428.5714285718</v>
+        <f>H3*(1-B7)</f>
+        <v>57000000.000000007</v>
       </c>
       <c r="J3" s="3">
         <f>H3*$D3</f>
-        <v>690857.14285714296</v>
+        <v>1428571.4285714284</v>
       </c>
-      <c r="K3" s="4">
-        <f>I3*$B$5</f>
-        <v>21257142.857142862</v>
+      <c r="K3" s="3">
+        <f>I3*$D3</f>
+        <v>814285.71428571432</v>
       </c>
       <c r="L3" s="4">
         <f>J3*$B$5</f>
-        <v>8290285.7142857155</v>
+        <v>9999999.9999999981</v>
+      </c>
+      <c r="M3" s="4">
+        <f>K3*$B$5</f>
+        <v>5700000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
